--- a/data/project/ProjectManager.xlsx
+++ b/data/project/ProjectManager.xlsx
@@ -9,13 +9,12 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="0">
   <si>
     <t>projectId</t>
   </si>
@@ -359,7 +358,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,19 +367,35 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/project/ProjectManager.xlsx
+++ b/data/project/ProjectManager.xlsx
@@ -358,7 +358,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,6 +395,14 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/data/project/ProjectManager.xlsx
+++ b/data/project/ProjectManager.xlsx
@@ -358,7 +358,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,14 +395,6 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
